--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\ExcelToCWMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8752C4E6-80AB-4CC0-BED4-6C4A2A047F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCD42F8-2AE0-4844-9686-7364C1BF10CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25095" yWindow="2955" windowWidth="17595" windowHeight="11595" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t>01080.Stage.Inst.1Day.0.Manual 0700</t>
-  </si>
-  <si>
-    <t>unitx</t>
-  </si>
-  <si>
-    <t>cfs</t>
-  </si>
-  <si>
-    <t>feet</t>
   </si>
 </sst>
 </file>
@@ -650,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAECE1B-F3C0-4870-B280-D5F084476133}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -674,46 +665,35 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="A2" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B2">
+        <v>121</v>
+      </c>
+      <c r="C2">
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B3">
         <v>121</v>
       </c>
       <c r="C3">
-        <v>38.299999999999997</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B4">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C4">
-        <v>39.700000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>44258</v>
-      </c>
-      <c r="B5">
-        <v>115</v>
-      </c>
-      <c r="C5">
         <v>41.4</v>
       </c>
     </row>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\ExcelToCWMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HEC\source\repos\ExcelToCWMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCD42F8-2AE0-4844-9686-7364C1BF10CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF951EB-2E3C-4002-B612-4114D1A80E25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25095" yWindow="2955" windowWidth="17595" windowHeight="11595" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15045" yWindow="390" windowWidth="14040" windowHeight="9645" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="17" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -644,7 +634,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -669,7 +659,8 @@
         <v>44256</v>
       </c>
       <c r="B2">
-        <v>121</v>
+        <f>C2</f>
+        <v>38.299999999999997</v>
       </c>
       <c r="C2">
         <v>38.299999999999997</v>
@@ -699,5 +690,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HEC\source\repos\ExcelToCWMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q0hecemt\source\repos\ExcelToCWMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF951EB-2E3C-4002-B612-4114D1A80E25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845E3A94-35D1-4D2B-B347-9D8FA92750D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15045" yWindow="390" windowWidth="14040" windowHeight="9645" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="17" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,10 +35,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>02600.Flow.Inst.~1Day.0.DailyComputed</t>
+    <t xml:space="preserve">02600.Flow.Inst.~1Day.0.DailyComputed[CFS] </t>
   </si>
   <si>
-    <t>01080.Stage.Inst.1Day.0.Manual 0700</t>
+    <t>01080.Stage.Inst.1Day.0.Manual 0700[FEET]</t>
   </si>
 </sst>
 </file>
@@ -634,16 +644,16 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.36328125" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44256</v>
       </c>
@@ -666,7 +676,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44257</v>
       </c>
@@ -677,7 +687,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44258</v>
       </c>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q0hecemt\source\repos\ExcelToCWMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845E3A94-35D1-4D2B-B347-9D8FA92750D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A9DA3C-57BD-4128-8B37-721229B11310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">02600.Flow.Inst.~1Day.0.DailyComputed[CFS] </t>
+    <t xml:space="preserve">02600.Flow.Inst.~1Day.0.DailyComputed{units=CFS} </t>
   </si>
   <si>
-    <t>01080.Stage.Inst.1Day.0.Manual 0700[FEET]</t>
+    <t>01080.Stage.Inst.1Day.0.Manual 0700{units=FEET}</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" customWidth="1"/>
     <col min="3" max="3" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q0hecemt\source\repos\ExcelToCWMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A9DA3C-57BD-4128-8B37-721229B11310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30339B88-7876-4463-9CF6-01918C92479B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">02600.Flow.Inst.~1Day.0.DailyComputed{units=CFS} </t>
+    <t>01080.Stage.Inst.1Day.0.Manual 0700{units=FEET}</t>
   </si>
   <si>
-    <t>01080.Stage.Inst.1Day.0.Manual 0700{units=FEET}</t>
+    <t>02600.Flow.Inst.~1Day.0.DailyComputed{units=CFS}</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q0hecemt\source\repos\ExcelToCWMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30339B88-7876-4463-9CF6-01918C92479B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAD1492-0FA0-4872-9DA0-D02EB7675358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="17" r:id="rId1"/>
@@ -35,18 +35,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>01080.Stage.Inst.1Day.0.Manual 0700{units=FEET}</t>
+    <t>ACIA.Flow.Inst.1Hour.0.Best-NWDM{units=CFS}</t>
   </si>
   <si>
-    <t>02600.Flow.Inst.~1Day.0.DailyComputed{units=CFS}</t>
+    <t>ACIA.Stage.Inst.1Hour.0.Best-NWDM{units=FEET}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -196,7 +197,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Comma0" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -641,15 +642,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAECE1B-F3C0-4870-B280-D5F084476133}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.453125" customWidth="1"/>
     <col min="3" max="3" width="42.453125" customWidth="1"/>
   </cols>
@@ -659,15 +660,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44256</v>
+        <v>44348.291666666664</v>
       </c>
       <c r="B2">
         <f>C2</f>
@@ -679,7 +680,8 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44257</v>
+        <f>MROUND(A2+1, "01:00")</f>
+        <v>44349.291666666664</v>
       </c>
       <c r="B3">
         <v>121</v>
@@ -690,7 +692,8 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44258</v>
+        <f t="shared" ref="A4:A16" si="0">MROUND(A3+1, "01:00")</f>
+        <v>44350.291666666664</v>
       </c>
       <c r="B4">
         <v>115</v>
@@ -698,6 +701,42 @@
       <c r="C4">
         <v>41.4</v>
       </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q0hecemt\source\repos\ExcelToCWMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAD1492-0FA0-4872-9DA0-D02EB7675358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4816424D-FAE4-4BBA-87FA-63A8C8C61458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,7 +645,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q0hecemt\source\repos\ExcelToCWMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4816424D-FAE4-4BBA-87FA-63A8C8C61458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F328BE-F34F-4566-B4DA-B02E70F4D900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,7 +645,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,11 +671,10 @@
         <v>44348.291666666664</v>
       </c>
       <c r="B2">
-        <f>C2</f>
-        <v>38.299999999999997</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>38.299999999999997</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -684,10 +683,10 @@
         <v>44349.291666666664</v>
       </c>
       <c r="B3">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>39.700000000000003</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,10 +695,10 @@
         <v>44350.291666666664</v>
       </c>
       <c r="B4">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="C4">
-        <v>41.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q0hecemt\source\repos\ExcelToCWMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F328BE-F34F-4566-B4DA-B02E70F4D900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA41F838-D041-4B20-B474-5CC36038A793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12204" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="17" r:id="rId1"/>
@@ -645,7 +645,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q0hecemt\source\repos\ExcelToCWMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA41F838-D041-4B20-B474-5CC36038A793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD373AB-BF25-4FF2-A724-D6A0869D6595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12204" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="17" r:id="rId1"/>
@@ -47,7 +47,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -197,7 +197,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Comma0" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -645,7 +645,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44348.291666666664</v>
+        <v>44378.291666666664</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -680,7 +680,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>MROUND(A2+1, "01:00")</f>
-        <v>44349.291666666664</v>
+        <v>44379.291666666664</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -691,8 +691,8 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A16" si="0">MROUND(A3+1, "01:00")</f>
-        <v>44350.291666666664</v>
+        <f>MROUND(A3+1, "01:00")</f>
+        <v>44380.291666666664</v>
       </c>
       <c r="B4">
         <v>300</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q0hecemt\source\repos\ExcelToCWMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD373AB-BF25-4FF2-A724-D6A0869D6595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61F7F75-BE17-4395-A5A3-4F124D5605C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAECE1B-F3C0-4870-B280-D5F084476133}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44378.291666666664</v>
+        <v>44501.291666666664</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -680,7 +680,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>MROUND(A2+1, "01:00")</f>
-        <v>44379.291666666664</v>
+        <v>44502.291666666664</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -692,7 +692,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>MROUND(A3+1, "01:00")</f>
-        <v>44380.291666666664</v>
+        <v>44503.291666666664</v>
       </c>
       <c r="B4">
         <v>300</v>
@@ -702,40 +702,214 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <f>MROUND(A4+1, "01:00")</f>
+        <v>44504.291666666664</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <f t="shared" ref="A6:A24" si="0">MROUND(A5+1, "01:00")</f>
+        <v>44505.291666666664</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>44506.291666666664</v>
+      </c>
+      <c r="B7">
+        <v>600</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>44507.291666666664</v>
+      </c>
+      <c r="B8">
+        <v>700</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>44508.291666666664</v>
+      </c>
+      <c r="B9">
+        <v>800</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>44509.291666666664</v>
+      </c>
+      <c r="B10">
+        <v>900</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>44510.291666666664</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>44511.291666666664</v>
+      </c>
+      <c r="B12">
+        <v>1100</v>
+      </c>
+      <c r="C12">
+        <v>110</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>44512.291666666664</v>
+      </c>
+      <c r="B13">
+        <v>1200</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>44513.291666666664</v>
+      </c>
+      <c r="B14">
+        <v>1300</v>
+      </c>
+      <c r="C14">
+        <v>130</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>44514.291666666664</v>
+      </c>
+      <c r="B15">
+        <v>1400</v>
+      </c>
+      <c r="C15">
+        <v>140</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>44515.291666666664</v>
+      </c>
+      <c r="B16">
+        <v>1500</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>44516.291666666664</v>
+      </c>
+      <c r="B17">
+        <v>1600</v>
+      </c>
+      <c r="C17">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>44517.291666666664</v>
+      </c>
+      <c r="B18">
+        <v>1700</v>
+      </c>
+      <c r="C18">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>44518.291666666664</v>
+      </c>
+      <c r="B19">
+        <v>1800</v>
+      </c>
+      <c r="C19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>44519.291666666664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>44520.291666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>44521.291666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>44522.291666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>44523.291666666664</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q0hecemt\source\repos\ExcelToCWMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61F7F75-BE17-4395-A5A3-4F124D5605C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F284771-24B9-4A5A-AD1E-DCF66407BF35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,7 +645,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,17 +886,35 @@
         <f t="shared" si="0"/>
         <v>44519.291666666664</v>
       </c>
+      <c r="B20">
+        <v>1900</v>
+      </c>
+      <c r="C20">
+        <v>190</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>44520.291666666664</v>
       </c>
+      <c r="B21">
+        <v>20000</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>44521.291666666664</v>
+      </c>
+      <c r="B22">
+        <v>21000</v>
+      </c>
+      <c r="C22">
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
